--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H2">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I2">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J2">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N2">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O2">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P2">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q2">
-        <v>7795.843163728534</v>
+        <v>2478.23371070465</v>
       </c>
       <c r="R2">
-        <v>31183.37265491414</v>
+        <v>9912.9348428186</v>
       </c>
       <c r="S2">
-        <v>0.2775775320267639</v>
+        <v>0.257657180016898</v>
       </c>
       <c r="T2">
-        <v>0.2043328655721345</v>
+        <v>0.2422577759781476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H3">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I3">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J3">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.115296</v>
       </c>
       <c r="O3">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P3">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q3">
-        <v>2.094893366096</v>
+        <v>0.744962794224</v>
       </c>
       <c r="R3">
-        <v>12.569360196576</v>
+        <v>4.469776765344</v>
       </c>
       <c r="S3">
-        <v>7.459043469802882E-05</v>
+        <v>7.74523451715487E-05</v>
       </c>
       <c r="T3">
-        <v>8.236227093832208E-05</v>
+        <v>0.0001092348729675647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H4">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I4">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J4">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N4">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O4">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P4">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q4">
-        <v>172.6325971649978</v>
+        <v>37.501733068712</v>
       </c>
       <c r="R4">
-        <v>1035.795582989987</v>
+        <v>225.010398412272</v>
       </c>
       <c r="S4">
-        <v>0.006146728360491071</v>
+        <v>0.003898982870942936</v>
       </c>
       <c r="T4">
-        <v>0.006787177319190668</v>
+        <v>0.005498928375465307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H5">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I5">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J5">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N5">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O5">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P5">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q5">
-        <v>23.313319970488</v>
+        <v>6.273343863261751</v>
       </c>
       <c r="R5">
-        <v>93.253279881952</v>
+        <v>25.093375453047</v>
       </c>
       <c r="S5">
-        <v>0.0008300903038771893</v>
+        <v>0.0006522274643034949</v>
       </c>
       <c r="T5">
-        <v>0.0006110535288515925</v>
+        <v>0.0006132457668118106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H6">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I6">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J6">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N6">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O6">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P6">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q6">
-        <v>5680.220799066894</v>
+        <v>11.797777074028</v>
       </c>
       <c r="R6">
-        <v>34081.32479440136</v>
+        <v>70.786662444168</v>
       </c>
       <c r="S6">
-        <v>0.2022490239552214</v>
+        <v>0.001226592132223779</v>
       </c>
       <c r="T6">
-        <v>0.2233220516202641</v>
+        <v>0.001729923547824313</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H7">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I7">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J7">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N7">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O7">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P7">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q7">
-        <v>279.6629588223407</v>
+        <v>55.8545637387485</v>
       </c>
       <c r="R7">
-        <v>1677.977752934044</v>
+        <v>335.127382432491</v>
       </c>
       <c r="S7">
-        <v>0.009957634123578295</v>
+        <v>0.005807091285150849</v>
       </c>
       <c r="T7">
-        <v>0.01099515457861396</v>
+        <v>0.008190028041623743</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>17.248962</v>
       </c>
       <c r="I8">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J8">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N8">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O8">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P8">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q8">
-        <v>822.3105617530789</v>
+        <v>735.0931460320929</v>
       </c>
       <c r="R8">
-        <v>4933.863370518474</v>
+        <v>4410.558876192557</v>
       </c>
       <c r="S8">
-        <v>0.02927905699193075</v>
+        <v>0.07642621688110483</v>
       </c>
       <c r="T8">
-        <v>0.03232974354621507</v>
+        <v>0.1077876734901726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>17.248962</v>
       </c>
       <c r="I9">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J9">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.115296</v>
       </c>
       <c r="O9">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P9">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q9">
         <v>0.220970702528</v>
@@ -1013,10 +1013,10 @@
         <v>1.988736322752</v>
       </c>
       <c r="S9">
-        <v>7.867847129521637E-06</v>
+        <v>2.297389783448985E-05</v>
       </c>
       <c r="T9">
-        <v>1.30314381382755E-05</v>
+        <v>4.860183650918357E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>17.248962</v>
       </c>
       <c r="I10">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J10">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N10">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O10">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P10">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q10">
-        <v>18.20939762001933</v>
+        <v>11.12375593313067</v>
       </c>
       <c r="R10">
-        <v>163.884578580174</v>
+        <v>100.113803398176</v>
       </c>
       <c r="S10">
-        <v>0.000648360869363816</v>
+        <v>0.00115651545394875</v>
       </c>
       <c r="T10">
-        <v>0.001073873757497217</v>
+        <v>0.002446636413990545</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>17.248962</v>
       </c>
       <c r="I11">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J11">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N11">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O11">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P11">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q11">
-        <v>2.459104017184</v>
+        <v>1.860797896771</v>
       </c>
       <c r="R11">
-        <v>14.754624103104</v>
+        <v>11.164787380626</v>
       </c>
       <c r="S11">
-        <v>8.755846029110863E-05</v>
+        <v>0.0001934635690703547</v>
       </c>
       <c r="T11">
-        <v>9.668148012052249E-05</v>
+        <v>0.0002728512396163681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>17.248962</v>
       </c>
       <c r="I12">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J12">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N12">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O12">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P12">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q12">
-        <v>599.1533510954133</v>
+        <v>3.499454078149333</v>
       </c>
       <c r="R12">
-        <v>5392.38015985872</v>
+        <v>31.495086703344</v>
       </c>
       <c r="S12">
-        <v>0.02133335740724264</v>
+        <v>0.0003638314923567949</v>
       </c>
       <c r="T12">
-        <v>0.03533423092208789</v>
+        <v>0.0007696943216083506</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>17.248962</v>
       </c>
       <c r="I13">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J13">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N13">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O13">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P13">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q13">
-        <v>29.49902915449866</v>
+        <v>16.56756858790866</v>
       </c>
       <c r="R13">
-        <v>265.491262390488</v>
+        <v>149.108117291178</v>
       </c>
       <c r="S13">
-        <v>0.001050337665589347</v>
+        <v>0.001722498158127035</v>
       </c>
       <c r="T13">
-        <v>0.001739663987886921</v>
+        <v>0.003643986513380391</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H14">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I14">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J14">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N14">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O14">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P14">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q14">
-        <v>32.12271825670017</v>
+        <v>6.686596544509833</v>
       </c>
       <c r="R14">
-        <v>192.736309540201</v>
+        <v>40.119579267059</v>
       </c>
       <c r="S14">
-        <v>0.001143756315823748</v>
+        <v>0.0006951925486798702</v>
       </c>
       <c r="T14">
-        <v>0.001262928255515075</v>
+        <v>0.0009804644336442725</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H15">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I15">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J15">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.115296</v>
       </c>
       <c r="O15">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P15">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q15">
-        <v>0.008631993738666667</v>
+        <v>0.002010006410666667</v>
       </c>
       <c r="R15">
-        <v>0.077687943648</v>
+        <v>0.018090057696</v>
       </c>
       <c r="S15">
-        <v>3.07349374291877E-07</v>
+        <v>2.089764905348677E-07</v>
       </c>
       <c r="T15">
-        <v>5.090597582779666E-07</v>
+        <v>4.420948199739447E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H16">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I16">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J16">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N16">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O16">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P16">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q16">
-        <v>0.7113314319167777</v>
+        <v>0.1011845483608889</v>
       </c>
       <c r="R16">
-        <v>6.401982887251</v>
+        <v>0.9106609352480001</v>
       </c>
       <c r="S16">
-        <v>2.532755202710986E-05</v>
+        <v>1.051996237454827E-05</v>
       </c>
       <c r="T16">
-        <v>4.1949776349468E-05</v>
+        <v>2.225523483624873E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H17">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I17">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J17">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N17">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O17">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P17">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q17">
-        <v>0.09606237494933334</v>
+        <v>0.01692629682883334</v>
       </c>
       <c r="R17">
-        <v>0.576374249696</v>
+        <v>0.101557780973</v>
       </c>
       <c r="S17">
-        <v>3.420381400581251E-06</v>
+        <v>1.759794441584817E-06</v>
       </c>
       <c r="T17">
-        <v>3.776762808362011E-06</v>
+        <v>2.481925135381931E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H18">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I18">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J18">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N18">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O18">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P18">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q18">
-        <v>23.40531082169778</v>
+        <v>0.03183193541244445</v>
       </c>
       <c r="R18">
-        <v>210.64779739528</v>
+        <v>0.286487418712</v>
       </c>
       <c r="S18">
-        <v>0.0008333657152613811</v>
+        <v>3.309504941936418E-06</v>
       </c>
       <c r="T18">
-        <v>0.001380295471710402</v>
+        <v>7.001337747434996E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H19">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I19">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J19">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N19">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O19">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P19">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q19">
-        <v>1.152349302623556</v>
+        <v>0.1507028700632222</v>
       </c>
       <c r="R19">
-        <v>10.371143723612</v>
+        <v>1.356325830569</v>
       </c>
       <c r="S19">
-        <v>4.103036307134043E-05</v>
+        <v>1.566828679362212E-05</v>
       </c>
       <c r="T19">
-        <v>6.795818847940239E-05</v>
+        <v>3.314663966074578E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H20">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I20">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J20">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N20">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O20">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P20">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q20">
-        <v>4328.43232209492</v>
+        <v>5945.830268720727</v>
       </c>
       <c r="R20">
-        <v>17313.72928837968</v>
+        <v>23783.32107488291</v>
       </c>
       <c r="S20">
-        <v>0.1541174618676334</v>
+        <v>0.6181765074376697</v>
       </c>
       <c r="T20">
-        <v>0.1134503300327684</v>
+        <v>0.5812299344577437</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H21">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I21">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J21">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.115296</v>
       </c>
       <c r="O21">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P21">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q21">
-        <v>1.163133219424</v>
+        <v>1.787330352192</v>
       </c>
       <c r="R21">
-        <v>6.978799316544</v>
+        <v>10.723982113152</v>
       </c>
       <c r="S21">
-        <v>4.141433347045987E-05</v>
+        <v>0.0001858252901311144</v>
       </c>
       <c r="T21">
-        <v>4.572943659375371E-05</v>
+        <v>0.0002620785970608623</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H22">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I22">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J22">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N22">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O22">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P22">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q22">
-        <v>95.84960827492966</v>
+        <v>89.974944108896</v>
       </c>
       <c r="R22">
-        <v>575.0976496495781</v>
+        <v>539.8496646533761</v>
       </c>
       <c r="S22">
-        <v>0.003412805664751509</v>
+        <v>0.009354521436432433</v>
       </c>
       <c r="T22">
-        <v>0.003768397730326303</v>
+        <v>0.01319314422975562</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H23">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I23">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J23">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N23">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O23">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P23">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q23">
-        <v>12.944094125072</v>
+        <v>15.051138101769</v>
       </c>
       <c r="R23">
-        <v>51.776376500288</v>
+        <v>60.204552407076</v>
       </c>
       <c r="S23">
-        <v>0.0004608853238962793</v>
+        <v>0.001564837804681473</v>
       </c>
       <c r="T23">
-        <v>0.0003392710434603471</v>
+        <v>0.001471312098905214</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H24">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I24">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J24">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N24">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O24">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P24">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q24">
-        <v>3153.789883525307</v>
+        <v>28.305474067024</v>
       </c>
       <c r="R24">
-        <v>18922.73930115184</v>
+        <v>169.832844402144</v>
       </c>
       <c r="S24">
-        <v>0.1122933329999472</v>
+        <v>0.002942865556080725</v>
       </c>
       <c r="T24">
-        <v>0.1239935650536339</v>
+        <v>0.004150468839479195</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H25">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I25">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J25">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N25">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O25">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P25">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q25">
-        <v>155.2753390282894</v>
+        <v>134.007440173838</v>
       </c>
       <c r="R25">
-        <v>931.652034169736</v>
+        <v>804.0446410430279</v>
       </c>
       <c r="S25">
-        <v>0.005528708631880382</v>
+        <v>0.01393249514254115</v>
       </c>
       <c r="T25">
-        <v>0.0061047639703594</v>
+        <v>0.01964968696100572</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H26">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I26">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J26">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N26">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O26">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P26">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q26">
-        <v>2701.809060688925</v>
+        <v>17.026037469974</v>
       </c>
       <c r="R26">
-        <v>16210.85436413355</v>
+        <v>102.156224819844</v>
       </c>
       <c r="S26">
-        <v>0.0962001768535958</v>
+        <v>0.001770164283710027</v>
       </c>
       <c r="T26">
-        <v>0.1062236071207632</v>
+        <v>0.002496550236593936</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H27">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I27">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J27">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.115296</v>
       </c>
       <c r="O27">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P27">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q27">
-        <v>0.7260281869226667</v>
+        <v>0.005118066304</v>
       </c>
       <c r="R27">
-        <v>6.534253682304</v>
+        <v>0.04606259673599999</v>
       </c>
       <c r="S27">
-        <v>2.585084231113163E-05</v>
+        <v>5.321154842386485E-07</v>
       </c>
       <c r="T27">
-        <v>4.281649692147851E-05</v>
+        <v>1.125703176504359E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H28">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I28">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J28">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N28">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O28">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P28">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q28">
-        <v>59.82936103188311</v>
+        <v>0.2576455600853333</v>
       </c>
       <c r="R28">
-        <v>538.4642492869481</v>
+        <v>2.318810040768</v>
       </c>
       <c r="S28">
-        <v>0.002130274561606952</v>
+        <v>2.678691205301449E-05</v>
       </c>
       <c r="T28">
-        <v>0.003528352891219785</v>
+        <v>5.666836030897667E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H29">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I29">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J29">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N29">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O29">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P29">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q29">
-        <v>8.079708353301333</v>
+        <v>0.043099319978</v>
       </c>
       <c r="R29">
-        <v>48.478250119808</v>
+        <v>0.258595919868</v>
       </c>
       <c r="S29">
-        <v>0.0002876847900994419</v>
+        <v>4.48095318783309E-06</v>
       </c>
       <c r="T29">
-        <v>0.000317659666724408</v>
+        <v>6.319709895967823E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H30">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I30">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J30">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N30">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O30">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P30">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q30">
-        <v>1968.596814907271</v>
+        <v>0.08105345095466666</v>
       </c>
       <c r="R30">
-        <v>17717.37133416544</v>
+        <v>0.729481058592</v>
       </c>
       <c r="S30">
-        <v>0.07009354010353928</v>
+        <v>8.426970996887655E-06</v>
       </c>
       <c r="T30">
-        <v>0.1160952439358771</v>
+        <v>1.782746095629881E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H31">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I31">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J31">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N31">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O31">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P31">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q31">
-        <v>96.92292420668623</v>
+        <v>0.3837337418893333</v>
       </c>
       <c r="R31">
-        <v>872.306317860176</v>
+        <v>3.453603677003999</v>
       </c>
       <c r="S31">
-        <v>0.003451021978390059</v>
+        <v>3.989605717389141E-05</v>
       </c>
       <c r="T31">
-        <v>0.005715893901455791</v>
+        <v>8.440107386633934E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H32">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I32">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J32">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>143.0191385</v>
+        <v>127.8499795</v>
       </c>
       <c r="N32">
-        <v>286.038277</v>
+        <v>255.699959</v>
       </c>
       <c r="O32">
-        <v>0.5586909079605606</v>
+        <v>0.9566969901290183</v>
       </c>
       <c r="P32">
-        <v>0.4580112546679992</v>
+        <v>0.9375332254660301</v>
       </c>
       <c r="Q32">
-        <v>10.47367289672433</v>
+        <v>18.964754559112</v>
       </c>
       <c r="R32">
-        <v>62.842037380346</v>
+        <v>113.788527354672</v>
       </c>
       <c r="S32">
-        <v>0.0003729239048131245</v>
+        <v>0.001971728960955836</v>
       </c>
       <c r="T32">
-        <v>0.0004117801406030321</v>
+        <v>0.002780826869727856</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H33">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I33">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J33">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.115296</v>
       </c>
       <c r="O33">
-        <v>0.0001501310188268283</v>
+        <v>0.0002875853314050663</v>
       </c>
       <c r="P33">
-        <v>0.000184614682244788</v>
+        <v>0.0004227369890322564</v>
       </c>
       <c r="Q33">
-        <v>0.002814477845333333</v>
+        <v>0.005700849152</v>
       </c>
       <c r="R33">
-        <v>0.025330300608</v>
+        <v>0.051307642368</v>
       </c>
       <c r="S33">
-        <v>1.002118433944979E-07</v>
+        <v>5.927062931398804E-07</v>
       </c>
       <c r="T33">
-        <v>1.659798946802046E-07</v>
+        <v>1.253884498167413E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H34">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I34">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J34">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.167042333333333</v>
+        <v>1.934682666666667</v>
       </c>
       <c r="N34">
-        <v>9.501127</v>
+        <v>5.804048</v>
       </c>
       <c r="O34">
-        <v>0.01237175510436691</v>
+        <v>0.0144771637140136</v>
       </c>
       <c r="P34">
-        <v>0.015213429278313</v>
+        <v>0.02128075367505108</v>
       </c>
       <c r="Q34">
-        <v>0.2319309555162222</v>
+        <v>0.2869830880426666</v>
       </c>
       <c r="R34">
-        <v>2.087378599646</v>
+        <v>2.582847792384</v>
       </c>
       <c r="S34">
-        <v>8.258096126450488E-06</v>
+        <v>2.98370782619166E-05</v>
       </c>
       <c r="T34">
-        <v>1.367780372955912E-05</v>
+        <v>6.312106069438293E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H35">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I35">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J35">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.427696</v>
+        <v>0.3236365</v>
       </c>
       <c r="N35">
-        <v>0.855392</v>
+        <v>0.647273</v>
       </c>
       <c r="O35">
-        <v>0.001670754481373834</v>
+        <v>0.002421760775064419</v>
       </c>
       <c r="P35">
-        <v>0.001369673902604892</v>
+        <v>0.002373250061596896</v>
       </c>
       <c r="Q35">
-        <v>0.03132131860266667</v>
+        <v>0.048006943864</v>
       </c>
       <c r="R35">
-        <v>0.187927911616</v>
+        <v>0.288041663184</v>
       </c>
       <c r="S35">
-        <v>1.115221809233273E-06</v>
+        <v>4.991189379677479E-06</v>
       </c>
       <c r="T35">
-        <v>1.231420639660436E-06</v>
+        <v>7.039321232153029E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H36">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I36">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J36">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>104.2068533333333</v>
+        <v>0.6086373333333334</v>
       </c>
       <c r="N36">
-        <v>312.62056</v>
+        <v>1.825912</v>
       </c>
       <c r="O36">
-        <v>0.4070743406450668</v>
+        <v>0.004554412188076668</v>
       </c>
       <c r="P36">
-        <v>0.5005754349464654</v>
+        <v>0.006694772941974269</v>
       </c>
       <c r="Q36">
-        <v>7.631345754542223</v>
+        <v>0.09028282747733334</v>
       </c>
       <c r="R36">
-        <v>68.68211179088</v>
+        <v>0.812545447296</v>
       </c>
       <c r="S36">
-        <v>0.0002717204638549493</v>
+        <v>9.386531476544072E-06</v>
       </c>
       <c r="T36">
-        <v>0.0004500479428919181</v>
+        <v>1.985743435867555E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H37">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I37">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J37">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.130574666666667</v>
+        <v>2.881489666666667</v>
       </c>
       <c r="N37">
-        <v>15.391724</v>
+        <v>8.644468999999999</v>
       </c>
       <c r="O37">
-        <v>0.0200421107898049</v>
+        <v>0.02156208786242213</v>
       </c>
       <c r="P37">
-        <v>0.02464559252237265</v>
+        <v>0.03169526086631522</v>
       </c>
       <c r="Q37">
-        <v>0.3757256643724445</v>
+        <v>0.4274286511946666</v>
       </c>
       <c r="R37">
-        <v>3.381530979352</v>
+        <v>3.846857860752</v>
       </c>
       <c r="S37">
-        <v>1.337802729547716E-05</v>
+        <v>4.443893263558673E-05</v>
       </c>
       <c r="T37">
-        <v>2.215789557718202E-05</v>
+        <v>9.401163677828157E-05</v>
       </c>
     </row>
   </sheetData>
